--- a/RESULTS/evaluation_table_test_Iobs_commented.xlsx
+++ b/RESULTS/evaluation_table_test_Iobs_commented.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/My Passport/Helcaraxe/ARM_env/RESULTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristophernolte/Documents/GitHub/helcaraxe/RESULTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD916BD-20DF-A24E-B322-28C5F3A3C17A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901C7405-C123-5145-A21B-79BF5D08FE1A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1432">
   <si>
     <t>names</t>
   </si>
@@ -4295,9 +4295,6 @@
   </si>
   <si>
     <t>broad</t>
-  </si>
-  <si>
-    <t>small</t>
   </si>
   <si>
     <t>unusual shape, covered</t>
@@ -4325,7 +4322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4355,6 +4352,25 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -4402,7 +4418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4415,6 +4431,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4719,8 +4742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4807,7 +4830,7 @@
         <v>0.88824375718832016</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4827,7 +4850,7 @@
         <v>0.99977849471906666</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4847,7 +4870,7 @@
         <v>0.9982338153058663</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4867,7 +4890,7 @@
         <v>0.98940217681229115</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4887,7 +4910,7 @@
         <v>0.75277984142303467</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4907,7 +4930,7 @@
         <v>0.50580507516860962</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
@@ -4927,24 +4950,24 @@
         <v>0.84945255517959595</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>527</v>
+        <v>769</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>531</v>
+        <v>773</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>2.6427235570736229E-4</v>
+        <v>1.138224080204964E-2</v>
       </c>
       <c r="E11" s="5">
-        <v>0.99973572764429264</v>
+        <v>0.98861775919795036</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1423</v>
@@ -4952,79 +4975,79 @@
     </row>
     <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>769</v>
+        <v>1275</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>773</v>
+        <v>1279</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>1.138224080204964E-2</v>
+        <v>3.934523556381464E-3</v>
       </c>
       <c r="E12" s="5">
-        <v>0.98861775919795036</v>
+        <v>0.99606547644361854</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5">
-        <v>3.934523556381464E-3</v>
+        <v>1.2521262979134919E-3</v>
       </c>
       <c r="E13" s="5">
-        <v>0.99606547644361854</v>
+        <v>0.99874787370208651</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>1277</v>
+        <v>103</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1281</v>
+        <v>107</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>1.2521262979134919E-3</v>
+        <v>6.8944352678954601E-3</v>
       </c>
       <c r="E14" s="5">
-        <v>0.99874787370208651</v>
+        <v>0.99310556473210454</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1432</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>103</v>
+        <v>653</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>657</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>6.8944352678954601E-3</v>
+        <v>7.7516557648777962E-3</v>
       </c>
       <c r="E15" s="5">
-        <v>0.99310556473210454</v>
+        <v>0.9922483442351222</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1422</v>
@@ -5032,19 +5055,19 @@
     </row>
     <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>653</v>
+        <v>1380</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>657</v>
+        <v>1384</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>7.7516557648777962E-3</v>
+        <v>2.4571444373577829E-3</v>
       </c>
       <c r="E16" s="5">
-        <v>0.9922483442351222</v>
+        <v>0.99754285556264222</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1422</v>
@@ -5052,139 +5075,139 @@
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>1380</v>
+        <v>1122</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1384</v>
+        <v>1126</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>2.4571444373577829E-3</v>
+        <v>2.2628533188253641E-3</v>
       </c>
       <c r="E17" s="5">
-        <v>0.99754285556264222</v>
+        <v>0.99773714668117464</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>1122</v>
+        <v>1199</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1126</v>
+        <v>1203</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>2.2628533188253641E-3</v>
+        <v>1.807785406708717E-2</v>
       </c>
       <c r="E18" s="5">
-        <v>0.99773714668117464</v>
+        <v>0.98192214593291283</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>1199</v>
+        <v>1113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1203</v>
+        <v>1117</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5">
-        <v>1.807785406708717E-2</v>
+        <v>1.010620687156916E-2</v>
       </c>
       <c r="E19" s="5">
-        <v>0.98192214593291283</v>
+        <v>0.98989379312843084</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>1113</v>
+        <v>973</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1117</v>
+        <v>977</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>1.010620687156916E-2</v>
+        <v>0.45422071218490601</v>
       </c>
       <c r="E20" s="5">
-        <v>0.98989379312843084</v>
+        <v>0.54577928781509399</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>973</v>
+        <v>232</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>977</v>
+        <v>236</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>0.45422071218490601</v>
+        <v>1.5863450244069099E-3</v>
       </c>
       <c r="E21" s="5">
-        <v>0.54577928781509399</v>
+        <v>0.99841365497559309</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>982</v>
+        <v>234</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>986</v>
+        <v>238</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>0.47309264540672302</v>
+        <v>0.1477721631526947</v>
       </c>
       <c r="E22" s="5">
-        <v>0.52690735459327698</v>
+        <v>0.8522278368473053</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>232</v>
+        <v>538</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>236</v>
+        <v>542</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5">
-        <v>1.5863450244069099E-3</v>
+        <v>3.5549849271774292E-2</v>
       </c>
       <c r="E23" s="5">
-        <v>0.99841365497559309</v>
+        <v>0.96445015072822571</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1421</v>
@@ -5192,19 +5215,19 @@
     </row>
     <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>234</v>
+        <v>665</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>238</v>
+        <v>669</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5">
-        <v>0.1477721631526947</v>
+        <v>7.6880990527570248E-3</v>
       </c>
       <c r="E24" s="5">
-        <v>0.8522278368473053</v>
+        <v>0.99231190094724298</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1421</v>
@@ -5212,19 +5235,19 @@
     </row>
     <row r="25" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>538</v>
+        <v>1112</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>542</v>
+        <v>1116</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5">
-        <v>3.5549849271774292E-2</v>
+        <v>3.3177770092152059E-4</v>
       </c>
       <c r="E25" s="5">
-        <v>0.96445015072822571</v>
+        <v>0.99966822229907848</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1421</v>
@@ -5232,139 +5255,139 @@
     </row>
     <row r="26" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>665</v>
+        <v>491</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>669</v>
+        <v>495</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="5">
-        <v>7.6880990527570248E-3</v>
+        <v>4.5705176889896393E-2</v>
       </c>
       <c r="E26" s="5">
-        <v>0.99231190094724298</v>
+        <v>0.95429482311010361</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>1112</v>
+        <v>668</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1116</v>
+        <v>672</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
       </c>
       <c r="D27" s="5">
-        <v>3.3177770092152059E-4</v>
+        <v>4.8615867272019386E-3</v>
       </c>
       <c r="E27" s="5">
-        <v>0.99966822229907848</v>
+        <v>0.99513841327279806</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>491</v>
+        <v>410</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>495</v>
+        <v>414</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
       </c>
       <c r="D28" s="5">
-        <v>4.5705176889896393E-2</v>
+        <v>1.261186436749995E-3</v>
       </c>
       <c r="E28" s="5">
-        <v>0.95429482311010361</v>
+        <v>0.99873881356325001</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>668</v>
+        <v>338</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>672</v>
+        <v>342</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
       </c>
       <c r="D29" s="5">
-        <v>4.8615867272019386E-3</v>
+        <v>4.1187748312950127E-2</v>
       </c>
       <c r="E29" s="5">
-        <v>0.99513841327279806</v>
+        <v>0.95881225168704987</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>414</v>
+        <v>220</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>1.261186436749995E-3</v>
+        <v>0.28944292664527888</v>
       </c>
       <c r="E30" s="5">
-        <v>0.99873881356325001</v>
+        <v>0.71055707335472107</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>338</v>
+        <v>939</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>342</v>
+        <v>943</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
       </c>
       <c r="D31" s="5">
-        <v>4.1187748312950127E-2</v>
+        <v>2.2555184550583358E-3</v>
       </c>
       <c r="E31" s="5">
-        <v>0.95881225168704987</v>
+        <v>0.99774448154494166</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>133</v>
+        <v>961</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>137</v>
+        <v>965</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
       <c r="D32" s="5">
-        <v>5.494212731719017E-3</v>
+        <v>1.324245356954634E-3</v>
       </c>
       <c r="E32" s="5">
-        <v>0.99450578726828098</v>
+        <v>0.99867575464304537</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>1416</v>
@@ -5372,19 +5395,19 @@
     </row>
     <row r="33" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>216</v>
+        <v>1355</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>220</v>
+        <v>1359</v>
       </c>
       <c r="C33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="5">
-        <v>0.28944292664527888</v>
+        <v>2.9273093678057189E-3</v>
       </c>
       <c r="E33" s="5">
-        <v>0.71055707335472107</v>
+        <v>0.99707269063219428</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>1416</v>
@@ -5392,103 +5415,95 @@
     </row>
     <row r="34" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>939</v>
+        <v>195</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>943</v>
+        <v>199</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
       </c>
       <c r="D34" s="5">
-        <v>2.2555184550583358E-3</v>
+        <v>2.4004438892006871E-2</v>
       </c>
       <c r="E34" s="5">
-        <v>0.99774448154494166</v>
+        <v>0.97599556110799313</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>961</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1.324245356954634E-3</v>
-      </c>
-      <c r="E35" s="5">
-        <v>0.99867575464304537</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>1416</v>
-      </c>
+      <c r="A35" s="7">
+        <v>527</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2.6427235570736229E-4</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2.6427235570736229E-4</v>
+      </c>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>1355</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C36" s="5">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5">
-        <v>2.9273093678057189E-3</v>
-      </c>
-      <c r="E36" s="5">
-        <v>0.99707269063219428</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>1416</v>
-      </c>
+      <c r="A36" s="7">
+        <v>982</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.47309264540672302</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0.47309264540672302</v>
+      </c>
+      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>195</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1</v>
-      </c>
-      <c r="D37" s="5">
-        <v>2.4004438892006871E-2</v>
-      </c>
-      <c r="E37" s="5">
-        <v>0.97599556110799313</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>1417</v>
-      </c>
+      <c r="A37" s="6">
+        <v>133</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.494212731719017E-3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.494212731719017E-3</v>
+      </c>
+      <c r="F37" s="1"/>
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="7">
         <v>1244</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="8" t="s">
         <v>1248</v>
       </c>
-      <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="8">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8">
         <v>2.314234338700771E-2</v>
       </c>
-      <c r="E38" s="5">
-        <v>0.97685765661299229</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>1417</v>
-      </c>
+      <c r="E38" s="8">
+        <v>2.314234338700771E-2</v>
+      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -15560,13 +15575,13 @@
         <v>574</v>
       </c>
       <c r="C598" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D598" s="1">
         <v>0.53406304121017456</v>
       </c>
       <c r="E598" s="1">
-        <v>0.46593695878982538</v>
+        <v>0.53406304121017456</v>
       </c>
       <c r="F598" s="1"/>
     </row>
@@ -18656,13 +18671,13 @@
         <v>750</v>
       </c>
       <c r="C770" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D770" s="1">
         <v>0.93646532297134399</v>
       </c>
       <c r="E770" s="1">
-        <v>6.3534677028656006E-2</v>
+        <v>0.93646532297134399</v>
       </c>
       <c r="F770" s="1"/>
     </row>
@@ -28304,13 +28319,13 @@
         <v>1304</v>
       </c>
       <c r="C1306" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1306" s="1">
         <v>0.62670069932937622</v>
       </c>
       <c r="E1306" s="1">
-        <v>0.37329930067062378</v>
+        <v>0.62670069932937622</v>
       </c>
       <c r="F1306" s="1"/>
     </row>
